--- a/Figures/Historical Data Processing.xlsx
+++ b/Figures/Historical Data Processing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="15">
   <si>
     <t>Seasons</t>
   </si>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,14 +113,6 @@
       <b/>
       <i/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -302,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,7 +325,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -343,27 +341,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -390,11 +367,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,13 +405,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>87406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>87406</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -466,13 +455,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -581,9 +570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>575854</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>129541</xdr:rowOff>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -594,8 +583,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1540329" y="870858"/>
-          <a:ext cx="254725" cy="597626"/>
+          <a:off x="930729" y="870858"/>
+          <a:ext cx="103414" cy="283028"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -628,13 +617,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>98612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -674,22 +663,27 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>313509</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66403</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Resim 34"/>
+        <xdr:cNvPr id="2" name="Resim 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -709,8 +703,68 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="12519660"/>
-          <a:ext cx="15986760" cy="6309360"/>
+          <a:off x="533400" y="467515"/>
+          <a:ext cx="11362509" cy="4536648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>159500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Resim 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="586740" y="159500"/>
+          <a:ext cx="9928860" cy="4031500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1019,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AW66"/>
+  <dimension ref="A2:AW64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ75" sqref="AJ75"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,285 +1085,455 @@
     <col min="26" max="26" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:49" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="26" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="25">
         <v>9</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30">
-        <v>10</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25">
+        <v>10</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25">
         <v>11</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31">
+      <c r="G3" s="25"/>
+      <c r="H3" s="12">
         <v>12</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12">
         <v>1</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12">
         <v>2</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="28">
+      <c r="M3" s="12"/>
+      <c r="N3" s="23">
         <v>3</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28">
+      <c r="O3" s="23"/>
+      <c r="P3" s="23">
         <v>4</v>
       </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23">
         <v>5</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29">
+      <c r="S3" s="23"/>
+      <c r="T3" s="24">
         <v>6</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29">
+      <c r="U3" s="24"/>
+      <c r="V3" s="24">
         <v>7</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29">
+      <c r="W3" s="24"/>
+      <c r="X3" s="24">
         <v>8</v>
       </c>
-      <c r="Y3" s="29"/>
+      <c r="Y3" s="24"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="15">
         <v>45</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="15">
         <v>45</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="13">
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="15">
         <v>45</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="13">
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="15">
         <v>45</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="13">
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="15">
         <v>45</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="13">
+      <c r="O4" s="16"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="15">
         <v>45</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="13">
+      <c r="R4" s="16"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="15">
         <v>45</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="13">
+      <c r="U4" s="16"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="15">
         <v>45</v>
       </c>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="15"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="17"/>
     </row>
-    <row r="9" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+    <row r="7" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="9">
+      <c r="C7" s="22"/>
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E7" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F7" s="10">
         <v>3</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G7" s="10">
         <v>4</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H7" s="10">
         <v>5</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I7" s="10">
         <v>6</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J7" s="10">
         <v>7</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K7" s="10">
         <v>8</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L7" s="10">
         <v>9</v>
       </c>
-      <c r="M9" s="10">
-        <v>10</v>
-      </c>
-      <c r="N9" s="10">
+      <c r="M7" s="10">
+        <v>10</v>
+      </c>
+      <c r="N7" s="10">
         <v>11</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O7" s="10">
         <v>12</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P7" s="10">
         <v>13</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q7" s="10">
         <v>14</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R7" s="10">
         <v>15</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S7" s="10">
         <v>16</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T7" s="10">
         <v>17</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U7" s="10">
         <v>18</v>
       </c>
-      <c r="V9" s="10">
-        <v>19</v>
-      </c>
-      <c r="W9" s="10">
-        <v>20</v>
-      </c>
-      <c r="X9" s="20" t="s">
+      <c r="V7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Y9" s="21"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="31"/>
+      <c r="X8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+    </row>
+    <row r="9" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="26"/>
+      <c r="X9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="27"/>
       <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
     </row>
-    <row r="10" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="19">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="X10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA10" s="17"/>
+    <row r="10" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="26"/>
+      <c r="X10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -1330,14 +1554,12 @@
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
     </row>
-    <row r="11" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C11" s="19"/>
+    <row r="11" spans="1:47" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1392,20 +1614,16 @@
       <c r="U11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA11" s="17"/>
+      <c r="V11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11" s="26"/>
+      <c r="X11" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
@@ -1426,14 +1644,12 @@
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
     </row>
-    <row r="12" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="19">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C12" s="19"/>
+    <row r="12" spans="1:47" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C12" s="14"/>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1488,20 +1704,16 @@
       <c r="U12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA12" s="17"/>
+      <c r="V12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="26"/>
+      <c r="X12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -1522,14 +1734,12 @@
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
     </row>
-    <row r="13" spans="1:49" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19">
-        <v>0.125</v>
-      </c>
-      <c r="C13" s="19"/>
+    <row r="13" spans="1:47" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
@@ -1584,20 +1794,16 @@
       <c r="U13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="18" t="s">
+      <c r="V13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="26"/>
+      <c r="X13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AA13" s="18"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
@@ -1618,14 +1824,12 @@
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
     </row>
-    <row r="14" spans="1:49" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="C14" s="19"/>
+    <row r="14" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
@@ -1680,20 +1884,14 @@
       <c r="U14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA14" s="18"/>
+      <c r="V14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="26"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
@@ -1714,14 +1912,12 @@
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
     </row>
-    <row r="15" spans="1:49" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="C15" s="19"/>
+    <row r="15" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="14">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
@@ -1776,20 +1972,14 @@
       <c r="U15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA15" s="18"/>
+      <c r="V15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="26"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
@@ -1810,14 +2000,12 @@
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
     </row>
-    <row r="16" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="C16" s="19"/>
+    <row r="16" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="14">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C16" s="14"/>
       <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
@@ -1872,17 +2060,13 @@
       <c r="U16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="11"/>
+      <c r="V16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="26"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -1904,14 +2088,12 @@
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
     </row>
     <row r="17" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="19">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="C17" s="19"/>
+      <c r="B17" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="14"/>
       <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
@@ -1966,17 +2148,13 @@
       <c r="U17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="11"/>
+      <c r="V17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17" s="26"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -1998,14 +2176,12 @@
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
     </row>
     <row r="18" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="19">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C18" s="19"/>
+      <c r="B18" s="14">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C18" s="14"/>
       <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
@@ -2060,17 +2236,13 @@
       <c r="U18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="11"/>
+      <c r="V18" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18" s="26"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
@@ -2092,14 +2264,12 @@
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
     </row>
     <row r="19" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="C19" s="19"/>
+      <c r="B19" s="14">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C19" s="14"/>
       <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
@@ -2154,17 +2324,13 @@
       <c r="U19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="11"/>
+      <c r="V19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19" s="26"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
@@ -2186,14 +2352,12 @@
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
     </row>
     <row r="20" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="19">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="C20" s="19"/>
+      <c r="B20" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="14"/>
       <c r="D20" s="7" t="s">
         <v>10</v>
       </c>
@@ -2248,17 +2412,13 @@
       <c r="U20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="11"/>
+      <c r="V20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="26"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -2280,14 +2440,12 @@
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
-      <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
     </row>
     <row r="21" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="19">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C21" s="19"/>
+      <c r="B21" s="14">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C21" s="14"/>
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
@@ -2342,17 +2500,13 @@
       <c r="U21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="11"/>
+      <c r="V21" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W21" s="26"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -2374,14 +2528,12 @@
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
     </row>
     <row r="22" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="19"/>
+      <c r="B22" s="14">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C22" s="14"/>
       <c r="D22" s="7" t="s">
         <v>10</v>
       </c>
@@ -2436,17 +2588,13 @@
       <c r="U22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="11"/>
+      <c r="V22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22" s="26"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -2468,14 +2616,12 @@
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
     </row>
     <row r="23" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="19">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C23" s="19"/>
+      <c r="B23" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C23" s="14"/>
       <c r="D23" s="7" t="s">
         <v>10</v>
       </c>
@@ -2530,17 +2676,13 @@
       <c r="U23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="11"/>
+      <c r="V23" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W23" s="26"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -2562,14 +2704,12 @@
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
     </row>
     <row r="24" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="19">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C24" s="19"/>
+      <c r="B24" s="14">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C24" s="14"/>
       <c r="D24" s="7" t="s">
         <v>10</v>
       </c>
@@ -2624,17 +2764,13 @@
       <c r="U24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="11"/>
+      <c r="V24" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W24" s="26"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -2656,14 +2792,12 @@
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
     </row>
     <row r="25" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="19">
-        <v>0.625</v>
-      </c>
-      <c r="C25" s="19"/>
+      <c r="B25" s="14">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C25" s="14"/>
       <c r="D25" s="7" t="s">
         <v>10</v>
       </c>
@@ -2718,17 +2852,13 @@
       <c r="U25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="11"/>
+      <c r="V25" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W25" s="26"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -2750,14 +2880,12 @@
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
     </row>
     <row r="26" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="19">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C26" s="19"/>
+      <c r="B26" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="C26" s="14"/>
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
@@ -2812,17 +2940,13 @@
       <c r="U26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="11"/>
+      <c r="V26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="26"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
@@ -2844,14 +2968,12 @@
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
-      <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
     </row>
     <row r="27" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="19">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C27" s="19"/>
+      <c r="B27" s="14">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C27" s="14"/>
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
@@ -2906,17 +3028,13 @@
       <c r="U27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="11"/>
+      <c r="V27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W27" s="26"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -2938,14 +3056,12 @@
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
     </row>
     <row r="28" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="C28" s="19"/>
+      <c r="B28" s="14">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C28" s="14"/>
       <c r="D28" s="7" t="s">
         <v>10</v>
       </c>
@@ -3000,17 +3116,13 @@
       <c r="U28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="11"/>
+      <c r="V28" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W28" s="26"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
@@ -3032,14 +3144,12 @@
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
-      <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
     </row>
     <row r="29" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="19">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C29" s="19"/>
+      <c r="B29" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C29" s="14"/>
       <c r="D29" s="7" t="s">
         <v>10</v>
       </c>
@@ -3094,17 +3204,13 @@
       <c r="U29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X29" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="11"/>
+      <c r="V29" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="26"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
@@ -3126,15 +3232,13 @@
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
-      <c r="AV29" s="1"/>
-      <c r="AW29" s="1"/>
     </row>
     <row r="30" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="19">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="14">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -3188,17 +3292,13 @@
       <c r="U30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="11"/>
+      <c r="V30" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W30" s="26"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
@@ -3220,15 +3320,13 @@
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
-      <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
     </row>
     <row r="31" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="19">
-        <v>0.875</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="7" t="s">
+      <c r="B31" s="14">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -3282,17 +3380,13 @@
       <c r="U31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X31" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="11"/>
+      <c r="V31" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W31" s="26"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
@@ -3314,79 +3408,32 @@
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
     </row>
-    <row r="32" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="19">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="U32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="V32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="11"/>
+    <row r="32" spans="2:49" x14ac:dyDescent="0.3">
+      <c r="C32" s="4"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
@@ -3411,76 +3458,31 @@
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
     </row>
-    <row r="33" spans="2:49" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="19">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="U33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="V33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X33" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="11"/>
+    <row r="33" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="C33" s="4"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
@@ -3505,155 +3507,99 @@
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
     </row>
-    <row r="34" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="C34" s="4"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="1"/>
-      <c r="AW34" s="1"/>
+    <row r="34" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="C35" s="4"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
-      <c r="AU35" s="1"/>
-      <c r="AV35" s="1"/>
-      <c r="AW35" s="1"/>
+    <row r="35" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="2:49" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:49" x14ac:dyDescent="0.3">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="2:49" x14ac:dyDescent="0.3">
-      <c r="C38" s="3"/>
-    </row>
-    <row r="66" spans="4:27" ht="21" x14ac:dyDescent="0.4">
-      <c r="D66" s="32" t="s">
+    <row r="64" spans="4:27" ht="21" x14ac:dyDescent="0.4">
+      <c r="D64" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
-      <c r="V66" s="32"/>
-      <c r="W66" s="32"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="32"/>
-      <c r="AA66" s="32"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+      <c r="AA64" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D66:AA66"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -3665,64 +3611,22 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D64:AA64"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3739,6 +3643,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3746,10 +3651,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>